--- a/activity/SIGE_P5.xlsx
+++ b/activity/SIGE_P5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.SIGE\activity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEE0759-92FF-4D35-8829-06B3C135A363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FB49FC-2347-4DCD-96EC-4DF48EB3ECD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14317" yWindow="0" windowWidth="14565" windowHeight="15563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="P5" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'P5'!$B$1:$D$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'P5'!$B$1:$D$106</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'P5'!$1:$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>Componente / Actividad</t>
   </si>
@@ -175,137 +175,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">3. Índices de ocupación y construcción del suelo
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://github.com/rcfdtools/R.SIGE/blob/main/activity/LandIndex/Readme.md</t>
-    </r>
-  </si>
-  <si>
-    <t>3.1. Obtención de zonas geopolíticas y categorización de registros catastrales</t>
-  </si>
-  <si>
-    <t>3.2. Índice general de construcción</t>
-  </si>
-  <si>
-    <t>3.3. Índice general de ocupación</t>
-  </si>
-  <si>
-    <t>3.4. Índice de ocupación por manzana urbana</t>
-  </si>
-  <si>
-    <t>3.5. Índice de construcción por manzana urbana</t>
-  </si>
-  <si>
-    <t>3.6. Descargue la base predial y registros de la última actualización catastral de su caso de estudio, realice un análisis de índices actualizado y compare con los valores obtenidos del estudio y adopción del POT.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">P4-4: Indices generales de ocupación y construcción por vereda y en el área urbana. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Incluir vectores, tablas y gráficos de análisis. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">P4-5: Índices de ocupación y construcción por manzana urbana.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Incluir vectores, tablas y gráficos de análisis.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">P4-6: Comparación índices adopción POT vs. ultima actualización catastral.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Incluir vectores, tablas y gráficos de análisis.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">4. Mapa geológico de Colombia vs. MOT
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://github.com/rcfdtools/R.SIGE/blob/main/activity/Geology/Readme.md</t>
-    </r>
-  </si>
-  <si>
-    <t>4.1. Mapa geológico de la zona de estudio</t>
-  </si>
-  <si>
-    <t>4.2. Geología vs. MOT</t>
-  </si>
-  <si>
-    <t>4.3. Análisis incluyendo las capas de volcanes, pliegues, pozos, rocas alta presión, rocas alta temperatura, indicando si para su caso de estudio generan incompatibilidad con las categorías de uso establecidas en el MOT.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">P4-7: Geología municipal.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Incluir tablas y gráficos de análisis.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">P4-8: Geología municipal combinada con categorías de uso del POT.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Incluir tablas y gráficos de análisis.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">5. Mapa de suelos, vocación de uso y conflictos de uso de Colombia vs. MOT
 </t>
     </r>
@@ -327,35 +196,6 @@
   </si>
   <si>
     <t>5.3. Vocación de uso y conflictos de uso de Colombia vs. MOT</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">P4-9: Suelos del municipio.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Incluir tablas y gráficos de análisis.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">P4-10: Suelos combinado con actividades de uso POT e identificación de zonas incompatibles. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Incluir tablas y gráficos de análisis.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -548,253 +388,516 @@
     </r>
     <r>
       <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Mostrar grilla de terreno de fondo y rotular incluyendo nombres de zona, área, cota mínima, media, máxima y desviación estándar.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. Modelo digital de elevación - DEM a partir de sensores remotos satelitales
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://github.com/rcfdtools/R.SIGE/blob/main/activity/DEMSatellite/Readme.md</t>
+    </r>
+  </si>
+  <si>
+    <t>2.1. Creación de máscara para obtención de modelos digitales de elevación - DEM</t>
+  </si>
+  <si>
+    <t>2.2. Modelo digital de elevación NASA ASTER GDEM v3 (30 m)</t>
+  </si>
+  <si>
+    <t>2.3. Modelo digital de elevación SRTM (30 m)</t>
+  </si>
+  <si>
+    <t>2.4. Modelo digital de elevación ALOS Palsar (12.5 m)</t>
+  </si>
+  <si>
+    <t>2.5. Modelo digital de elevación ESA Copernicus (30 m)</t>
+  </si>
+  <si>
+    <t>2.6. Red de muestreo para comparación y análisis de elevaciones</t>
+  </si>
+  <si>
+    <t>2.7. Generación de curvas de nivel clasificadas</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mpio25899_MOT2013_Envelope
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Envolvente municipal a partir de la capa Mpio25899_MOT2013.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mpio25899_MOT2013_Envelope_Buffer2500m
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Envolvente municipal con aferencia de 2500 metros a partir de Mpio25899_MOT2013_Envelope.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ASTGTMV003MosaicArcGISPro.tif
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Modelo digital de elevación ASTER GDEM v3 (30 m)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mpio25899_ASTGTMV003_Stat
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tabla de estadística zonal municipal de elevaciones a partir del modelo digital de elevación ASTER GDEM v3 (30 m).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SRTMGL3003MosaicArcGISPro.tif
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Modelo digital de elevación SRTM v3 (30 m).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mpio25899_SRTMGL3003_Stat
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tabla de estadística zonal municipal de elevaciones a partir del modelo digital de elevación SRTM v3 (30 m).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ALOSPalsarFBSMosaicArcGISPro.tif
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Modelo digital de elevación Alos Palsar (12.5 m).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mpio25899_ALOSPalsarFBS_Stat
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tabla de estadística zonal municipal de elevaciones a partir del modelo digital de elevación Alos Palsar (12.5 m).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Copernicus30m.tif
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Modelo digital de elevación ESA Copernicus (30 m).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mpio25899_Copernicus_Stat
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tabla de estadística zonal municipal de elevaciones a partir del modelo digital de elevación ESA Copernicus (30 m).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mpio25899_FishNet1km
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Red de muestreo regular cada 1 km sobre límite municipal Mpio25899_MOT2013.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CurvasNivel5mCopernicus
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Curvas de nivel categorizadas cada 50 y 5 metros a partir del DEM Copernicus30m.tif.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CurvasNivel5mCopernicusSmooth100m
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Curvas de nivel categorizadas cada 50 y 5 metros y suavizadas con radio 100 m a partir de CurvasNivel5mCopernicus.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. Mapa de pendientes de terreno
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://github.com/rcfdtools/R.SIGE/blob/main/activity/DEMSlope/Readme.md</t>
+    </r>
+  </si>
+  <si>
+    <t>3.1. Creación de mapa de pendientes clasificadas</t>
+  </si>
+  <si>
+    <t>3.2. Análisis general de pendiente municipal</t>
+  </si>
+  <si>
+    <t>3.3. Análisis de pendiente por división geopolítica municipal catastral</t>
+  </si>
+  <si>
+    <t>3.4. Análisis de pendiente por categoría de suelo e identificación de incompatibilidades</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Copernicus30m_Fill.tif
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Grilla de terreno con relleno de sumideros a partir de DEM Copernicus (30 m).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Copernicus30m_Fill_Slope.tif
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Grilla de pendientes de terreno en tasa porcentual a partir de DEM Copernicus con relleno de sumideros (30 m).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Copernicus30m_Fill_Slope_Reclass.tif
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Grilla de reclasificación de pendientes de terreno en clases ANLA a partir de grilla de pendientes generadas a partir del DEM Copernicus con relleno de sumideros (30 m).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mpio25899_Copernicus_Slope_Stat
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">	Tabla de estadísticos zonales de pendiente sobre toda el área municipal Mpio25899_MOT2013.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mpio25899_DiviPol_Copernicus_Slope_Stat
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tabla de estadísticos zonales de pendiente para cada división geopolítica catastral municipal en Mpio25899_DiviPol.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MOT_Copernicus_Slope_Stat
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">	Tabla de estadísticos zonales para cada categoría de suelo definida en el MOT.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">P5-4: Comparación de modelos digitales POT, ASTER GDEM, SRTM, ALOS PALSAR y Copernicus. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Incluir estadísticos zonales municipales.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">P5-5: Red de muestreo municipal con elevaciones.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Incluir tabla y gráfico de dispersión múltiple.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">P5-6: Curvas de nivel Copernicus vs. curvas POT.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Incluir análisis de diferencia y rótulos de cota. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">P5-7: Mapa de pendientes y estadístico municipal.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Incluir tabla de valores de estadística zonal. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">P5-8: Mapa de reclasificación de pendientes.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Incluir rótulo de categorías ANLA.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">P5-9: Mapa de pendientes por división geopolítica catastral municipal.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Incluir rótulo y tabla de estadísticos zonales.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">P5-10: Mapa de pendientes por categorías del MOT con identificación de polígonos incompatibles. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Incluir rótulo y tabla de estadísticos zonales.</t>
+    </r>
+  </si>
+  <si>
+    <t>4.1. Análisis de cubrimiento de páramos en zona de estudio</t>
+  </si>
+  <si>
+    <t>4.2. Análisis de elevación y pendiente en zona de páramo</t>
+  </si>
+  <si>
+    <t>4.3. Identificación de incompatibilidades con el MOT</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. Estudio de zonas de páramo
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://github.com/rcfdtools/R.SIGE/blob/main/activity/MoorLand/Readme.md</t>
+    </r>
+    <r>
+      <rPr>
         <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Mostrar grilla de terreno de fondo y rotular incluyendo nombres de zona, área, cota mínima, media, máxima y desviación estándar.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2. Modelo digital de elevación - DEM a partir de sensores remotos satelitales
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://github.com/rcfdtools/R.SIGE/blob/main/activity/DEMSatellite/Readme.md</t>
-    </r>
-  </si>
-  <si>
-    <t>2.1. Creación de máscara para obtención de modelos digitales de elevación - DEM</t>
-  </si>
-  <si>
-    <t>2.2. Modelo digital de elevación NASA ASTER GDEM v3 (30 m)</t>
-  </si>
-  <si>
-    <t>2.3. Modelo digital de elevación SRTM (30 m)</t>
-  </si>
-  <si>
-    <t>2.4. Modelo digital de elevación ALOS Palsar (12.5 m)</t>
-  </si>
-  <si>
-    <t>2.5. Modelo digital de elevación ESA Copernicus (30 m)</t>
-  </si>
-  <si>
-    <t>2.6. Red de muestreo para comparación y análisis de elevaciones</t>
-  </si>
-  <si>
-    <t>2.7. Generación de curvas de nivel clasificadas</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mpio25899_MOT2013_Envelope
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Envolvente municipal a partir de la capa Mpio25899_MOT2013.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mpio25899_MOT2013_Envelope_Buffer2500m
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Envolvente municipal con aferencia de 2500 metros a partir de Mpio25899_MOT2013_Envelope.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ASTGTMV003MosaicArcGISPro.tif
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Modelo digital de elevación ASTER GDEM v3 (30 m)</t>
-    </r>
-    <r>
-      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Light"/>
         <family val="2"/>
       </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mpio25899_ASTGTMV003_Stat
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tabla de estadística zonal municipal de elevaciones a partir del modelo digital de elevación ASTER GDEM v3 (30 m).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SRTMGL3003MosaicArcGISPro.tif
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Modelo digital de elevación SRTM v3 (30 m).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mpio25899_SRTMGL3003_Stat
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tabla de estadística zonal municipal de elevaciones a partir del modelo digital de elevación SRTM v3 (30 m).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ALOSPalsarFBSMosaicArcGISPro.tif
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Modelo digital de elevación Alos Palsar (12.5 m).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mpio25899_ALOSPalsarFBS_Stat
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tabla de estadística zonal municipal de elevaciones a partir del modelo digital de elevación Alos Palsar (12.5 m).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Copernicus30m.tif
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Modelo digital de elevación ESA Copernicus (30 m).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mpio25899_Copernicus_Stat
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tabla de estadística zonal municipal de elevaciones a partir del modelo digital de elevación ESA Copernicus (30 m).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mpio25899_FishNet1km
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Red de muestreo regular cada 1 km sobre límite municipal Mpio25899_MOT2013.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">CurvasNivel5mCopernicus
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Curvas de nivel categorizadas cada 50 y 5 metros a partir del DEM Copernicus30m.tif.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">CurvasNivel5mCopernicusSmooth100m
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Curvas de nivel categorizadas cada 50 y 5 metros y suavizadas con radio 100 m a partir de CurvasNivel5mCopernicus.</t>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>En caso de que en su zona de estudio no existan páramos, identifique por proximidad los páramos más cercanos.</t>
     </r>
   </si>
 </sst>
@@ -802,7 +905,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -862,13 +965,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Segoe UI Light"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Segoe UI Light"/>
@@ -1043,7 +1139,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1152,9 +1248,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1437,13 +1530,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F88"/>
+  <dimension ref="B1:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B53" sqref="B53"/>
+      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -1471,7 +1564,7 @@
     </row>
     <row r="3" spans="2:6" ht="33" x14ac:dyDescent="0.45">
       <c r="B3" s="32" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
@@ -1481,18 +1574,18 @@
         <v>0</v>
       </c>
       <c r="C4" s="6">
-        <f>SUM(C6:C88)</f>
-        <v>49.200000000000031</v>
+        <f>SUM(C6:C106)</f>
+        <v>46.600000000000037</v>
       </c>
       <c r="D4" s="7">
-        <f>SUM(D6:D88)</f>
+        <f>SUM(D6:D106)</f>
         <v>0</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="18" t="str">
-        <f>_xlfn.CONCAT(SUM(E6:E88)," de ",$D$4, " puntos")</f>
+        <f>_xlfn.CONCAT(SUM(E6:E106)," de ",$D$4, " puntos")</f>
         <v>0 de 0 puntos</v>
       </c>
     </row>
@@ -1533,7 +1626,7 @@
     </row>
     <row r="8" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B8" s="30" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="10"/>
@@ -1542,7 +1635,7 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B9" s="12" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
@@ -1553,7 +1646,7 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B10" s="12" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
@@ -1564,7 +1657,7 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B11" s="12" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
@@ -1575,7 +1668,7 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B12" s="12" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C12" s="4">
         <v>0.5</v>
@@ -1586,7 +1679,7 @@
     </row>
     <row r="13" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B13" s="30" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="10"/>
@@ -1595,7 +1688,7 @@
     </row>
     <row r="14" spans="2:6" ht="33" x14ac:dyDescent="0.45">
       <c r="B14" s="12" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C14" s="4">
         <v>0.5</v>
@@ -1606,7 +1699,7 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B15" s="12" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C15" s="4">
         <v>1</v>
@@ -1617,7 +1710,7 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B16" s="12" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C16" s="4">
         <v>1</v>
@@ -1628,7 +1721,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B17" s="12" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C17" s="4">
         <v>1</v>
@@ -1639,7 +1732,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B18" s="12" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
@@ -1650,7 +1743,7 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B19" s="12" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C19" s="4">
         <v>1</v>
@@ -1661,7 +1754,7 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B20" s="12" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C20" s="4">
         <v>0.5</v>
@@ -1672,7 +1765,7 @@
     </row>
     <row r="21" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B21" s="30" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="10"/>
@@ -1681,7 +1774,7 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B22" s="12" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="C22" s="4">
         <v>1</v>
@@ -1692,7 +1785,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B23" s="12" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="C23" s="4">
         <v>1</v>
@@ -1703,7 +1796,7 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B24" s="12" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C24" s="4">
         <v>1</v>
@@ -1712,9 +1805,9 @@
       <c r="E24" s="21"/>
       <c r="F24" s="22"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:6" ht="33" x14ac:dyDescent="0.45">
       <c r="B25" s="12" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="C25" s="4">
         <v>1</v>
@@ -1723,107 +1816,107 @@
       <c r="E25" s="21"/>
       <c r="F25" s="22"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B26" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="4">
-        <v>1</v>
-      </c>
+    <row r="26" spans="2:6" ht="45.75" x14ac:dyDescent="0.45">
+      <c r="B26" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="4"/>
       <c r="D26" s="10"/>
       <c r="E26" s="21"/>
       <c r="F26" s="22"/>
     </row>
-    <row r="27" spans="2:6" ht="49.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B27" s="12" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C27" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="21"/>
-      <c r="F27" s="22"/>
-    </row>
-    <row r="28" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B28" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="4"/>
+      <c r="F27" s="23"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B28" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1.5</v>
+      </c>
       <c r="D28" s="10"/>
       <c r="E28" s="21"/>
       <c r="F28" s="22"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B29" s="12" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C29" s="4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="21"/>
-      <c r="F29" s="23"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B30" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="4">
-        <v>1.5</v>
-      </c>
+      <c r="F29" s="22"/>
+    </row>
+    <row r="30" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B30" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="4"/>
       <c r="D30" s="10"/>
       <c r="E30" s="21"/>
       <c r="F30" s="22"/>
     </row>
-    <row r="31" spans="2:6" ht="49.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B31" s="12" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C31" s="4">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D31" s="10"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="22"/>
-    </row>
-    <row r="32" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B32" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="4"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="23"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B32" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1</v>
+      </c>
       <c r="D32" s="10"/>
       <c r="E32" s="21"/>
       <c r="F32" s="22"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B33" s="12" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C33" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="24"/>
       <c r="F33" s="23"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B34" s="12" t="s">
-        <v>47</v>
+      <c r="B34" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C34" s="4">
         <v>1</v>
       </c>
       <c r="D34" s="10"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="22"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="23"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B35" s="12" t="s">
-        <v>48</v>
+      <c r="B35" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="C35" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="24"/>
@@ -1831,18 +1924,18 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B36" s="11" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C36" s="4">
         <v>1</v>
       </c>
       <c r="D36" s="10"/>
-      <c r="E36" s="25"/>
+      <c r="E36" s="24"/>
       <c r="F36" s="23"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B37" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C37" s="4">
         <v>1</v>
@@ -1851,69 +1944,69 @@
       <c r="E37" s="24"/>
       <c r="F37" s="23"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B38" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="4">
-        <v>1</v>
-      </c>
-      <c r="D38" s="10"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="23"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:6" ht="93" x14ac:dyDescent="0.45">
+      <c r="B38" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="22"/>
+    </row>
+    <row r="39" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B39" s="11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C39" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D39" s="10"/>
-      <c r="E39" s="24"/>
+      <c r="E39" s="25"/>
       <c r="F39" s="23"/>
     </row>
-    <row r="40" spans="2:6" ht="93" x14ac:dyDescent="0.45">
-      <c r="B40" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="22"/>
-    </row>
-    <row r="41" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B40" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="23"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B41" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="4">
-        <v>0.5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C41" s="4"/>
       <c r="D41" s="10"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="23"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B42" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" s="4"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="22"/>
+    </row>
+    <row r="42" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B42" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0.1</v>
+      </c>
       <c r="D42" s="10"/>
-      <c r="E42" s="25"/>
+      <c r="E42" s="24"/>
       <c r="F42" s="23"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B43" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="4"/>
+    <row r="43" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B43" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0.1</v>
+      </c>
       <c r="D43" s="10"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="22"/>
-    </row>
-    <row r="44" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="E43" s="24"/>
+      <c r="F43" s="23"/>
+    </row>
+    <row r="44" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B44" s="13" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C44" s="4">
         <v>0.1</v>
@@ -1924,7 +2017,7 @@
     </row>
     <row r="45" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B45" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C45" s="4">
         <v>0.1</v>
@@ -1935,7 +2028,7 @@
     </row>
     <row r="46" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B46" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C46" s="4">
         <v>0.1</v>
@@ -1944,9 +2037,9 @@
       <c r="E46" s="24"/>
       <c r="F46" s="23"/>
     </row>
-    <row r="47" spans="2:6" ht="42" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B47" s="13" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C47" s="4">
         <v>0.1</v>
@@ -1957,7 +2050,7 @@
     </row>
     <row r="48" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B48" s="13" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C48" s="4">
         <v>0.1</v>
@@ -1966,9 +2059,9 @@
       <c r="E48" s="24"/>
       <c r="F48" s="23"/>
     </row>
-    <row r="49" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B49" s="13" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C49" s="4">
         <v>0.1</v>
@@ -1977,84 +2070,60 @@
       <c r="E49" s="24"/>
       <c r="F49" s="23"/>
     </row>
-    <row r="50" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B50" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C50" s="4">
-        <v>0.1</v>
-      </c>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B50" s="13"/>
+      <c r="C50" s="4"/>
       <c r="D50" s="10"/>
       <c r="E50" s="24"/>
       <c r="F50" s="23"/>
     </row>
-    <row r="51" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B51" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C51" s="4">
-        <v>0.1</v>
-      </c>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B51" s="13"/>
+      <c r="C51" s="4"/>
       <c r="D51" s="10"/>
       <c r="E51" s="24"/>
       <c r="F51" s="23"/>
     </row>
-    <row r="52" spans="2:6" ht="42" x14ac:dyDescent="0.45">
-      <c r="B52" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C52" s="4">
-        <v>0.1</v>
-      </c>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B52" s="13"/>
+      <c r="C52" s="4"/>
       <c r="D52" s="10"/>
       <c r="E52" s="24"/>
       <c r="F52" s="23"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B53" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="B53" s="13"/>
       <c r="C53" s="4"/>
       <c r="D53" s="10"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="22"/>
-    </row>
-    <row r="54" spans="2:6" ht="42" x14ac:dyDescent="0.45">
-      <c r="B54" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C54" s="4">
-        <v>0.1</v>
-      </c>
+      <c r="E53" s="24"/>
+      <c r="F53" s="23"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B54" s="13"/>
+      <c r="C54" s="4"/>
       <c r="D54" s="10"/>
       <c r="E54" s="24"/>
       <c r="F54" s="23"/>
     </row>
-    <row r="55" spans="2:6" ht="42" x14ac:dyDescent="0.45">
-      <c r="B55" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C55" s="4">
-        <v>0.1</v>
-      </c>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B55" s="13"/>
+      <c r="C55" s="4"/>
       <c r="D55" s="10"/>
       <c r="E55" s="24"/>
       <c r="F55" s="23"/>
     </row>
-    <row r="56" spans="2:6" ht="42" x14ac:dyDescent="0.45">
-      <c r="B56" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C56" s="4">
-        <v>0.1</v>
-      </c>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B56" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" s="4"/>
       <c r="D56" s="10"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="23"/>
-    </row>
-    <row r="57" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="E56" s="21"/>
+      <c r="F56" s="22"/>
+    </row>
+    <row r="57" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B57" s="13" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="C57" s="4">
         <v>0.1</v>
@@ -2065,7 +2134,7 @@
     </row>
     <row r="58" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B58" s="13" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="C58" s="4">
         <v>0.1</v>
@@ -2076,7 +2145,7 @@
     </row>
     <row r="59" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B59" s="13" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="C59" s="4">
         <v>0.1</v>
@@ -2085,18 +2154,20 @@
       <c r="E59" s="24"/>
       <c r="F59" s="23"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B60" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C60" s="4"/>
+    <row r="60" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B60" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" s="4">
+        <v>0.1</v>
+      </c>
       <c r="D60" s="10"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="22"/>
-    </row>
-    <row r="61" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="E60" s="24"/>
+      <c r="F60" s="23"/>
+    </row>
+    <row r="61" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B61" s="13" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C61" s="4">
         <v>0.1</v>
@@ -2105,9 +2176,9 @@
       <c r="E61" s="24"/>
       <c r="F61" s="23"/>
     </row>
-    <row r="62" spans="2:6" ht="33" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B62" s="13" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C62" s="4">
         <v>0.1</v>
@@ -2118,7 +2189,7 @@
     </row>
     <row r="63" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B63" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C63" s="4">
         <v>0.1</v>
@@ -2127,9 +2198,9 @@
       <c r="E63" s="24"/>
       <c r="F63" s="23"/>
     </row>
-    <row r="64" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B64" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C64" s="4">
         <v>0.1</v>
@@ -2140,7 +2211,7 @@
     </row>
     <row r="65" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B65" s="13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C65" s="4">
         <v>0.1</v>
@@ -2149,228 +2220,212 @@
       <c r="E65" s="24"/>
       <c r="F65" s="23"/>
     </row>
-    <row r="66" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B66" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C66" s="4">
-        <v>0.1</v>
-      </c>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B66" s="13"/>
+      <c r="C66" s="4"/>
       <c r="D66" s="10"/>
       <c r="E66" s="24"/>
       <c r="F66" s="23"/>
     </row>
-    <row r="67" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B67" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C67" s="4">
-        <v>0.1</v>
-      </c>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B67" s="13"/>
+      <c r="C67" s="4"/>
       <c r="D67" s="10"/>
       <c r="E67" s="24"/>
       <c r="F67" s="23"/>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B68" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="10"/>
       <c r="E68" s="21"/>
       <c r="F68" s="22"/>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B69" s="13"/>
-      <c r="C69" s="4"/>
+    <row r="69" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B69" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C69" s="4">
+        <v>0.1</v>
+      </c>
       <c r="D69" s="10"/>
       <c r="E69" s="24"/>
       <c r="F69" s="23"/>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B70" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C70" s="5"/>
-      <c r="D70" s="31"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="22"/>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B71" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C71" s="4"/>
+    <row r="70" spans="2:6" ht="33" x14ac:dyDescent="0.45">
+      <c r="B70" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C70" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D70" s="10"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="23"/>
+    </row>
+    <row r="71" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B71" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C71" s="4">
+        <v>0.1</v>
+      </c>
       <c r="D71" s="10"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="22"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="23"/>
     </row>
     <row r="72" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B72" s="12" t="s">
-        <v>64</v>
+      <c r="B72" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="C72" s="4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D72" s="10"/>
       <c r="E72" s="24"/>
       <c r="F72" s="23"/>
     </row>
     <row r="73" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B73" s="12" t="s">
+      <c r="B73" s="13" t="s">
         <v>65</v>
       </c>
       <c r="C73" s="4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D73" s="10"/>
       <c r="E73" s="24"/>
       <c r="F73" s="23"/>
     </row>
-    <row r="74" spans="2:6" ht="42" x14ac:dyDescent="0.45">
-      <c r="B74" s="37" t="s">
-        <v>66</v>
+    <row r="74" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B74" s="13" t="s">
+        <v>75</v>
       </c>
       <c r="C74" s="4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D74" s="10"/>
       <c r="E74" s="24"/>
       <c r="F74" s="23"/>
     </row>
-    <row r="75" spans="2:6" ht="33" x14ac:dyDescent="0.45">
-      <c r="B75" s="12" t="s">
-        <v>36</v>
+    <row r="75" spans="2:6" ht="42" x14ac:dyDescent="0.45">
+      <c r="B75" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="C75" s="4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D75" s="10"/>
       <c r="E75" s="24"/>
       <c r="F75" s="23"/>
     </row>
-    <row r="76" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B76" s="12" t="s">
-        <v>37</v>
+    <row r="76" spans="2:6" ht="42" x14ac:dyDescent="0.45">
+      <c r="B76" s="13" t="s">
+        <v>77</v>
       </c>
       <c r="C76" s="4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D76" s="10"/>
       <c r="E76" s="24"/>
       <c r="F76" s="23"/>
     </row>
-    <row r="77" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B77" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C77" s="4">
-        <v>1</v>
-      </c>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B77" s="13"/>
+      <c r="C77" s="4"/>
       <c r="D77" s="10"/>
       <c r="E77" s="24"/>
       <c r="F77" s="23"/>
     </row>
-    <row r="78" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B78" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C78" s="4">
-        <v>1</v>
-      </c>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B78" s="13"/>
+      <c r="C78" s="4"/>
       <c r="D78" s="10"/>
       <c r="E78" s="24"/>
       <c r="F78" s="23"/>
     </row>
-    <row r="79" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B79" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C79" s="4">
-        <v>1</v>
-      </c>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B79" s="13"/>
+      <c r="C79" s="4"/>
       <c r="D79" s="10"/>
       <c r="E79" s="24"/>
       <c r="F79" s="23"/>
     </row>
-    <row r="80" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B80" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C80" s="4">
-        <v>1</v>
-      </c>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B80" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C80" s="4"/>
       <c r="D80" s="10"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="23"/>
-    </row>
-    <row r="81" spans="2:6" ht="33" x14ac:dyDescent="0.45">
-      <c r="B81" s="12" t="s">
-        <v>50</v>
+      <c r="E80" s="21"/>
+      <c r="F80" s="22"/>
+    </row>
+    <row r="81" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B81" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="C81" s="4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D81" s="10"/>
       <c r="E81" s="24"/>
       <c r="F81" s="23"/>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B82" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C82" s="4">
-        <v>1</v>
-      </c>
-      <c r="D82" s="10"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="23"/>
-    </row>
-    <row r="83" spans="2:6" ht="33" x14ac:dyDescent="0.45">
+      <c r="B82" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" s="5"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="22"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B83" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83" s="4">
-        <v>1</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C83" s="4"/>
       <c r="D83" s="10"/>
       <c r="E83" s="21"/>
       <c r="F83" s="22"/>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B84" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C84" s="5"/>
-      <c r="D84" s="31"/>
-      <c r="E84" s="21"/>
-      <c r="F84" s="22"/>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B85" s="11" t="s">
-        <v>9</v>
+    <row r="84" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B84" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C84" s="4">
+        <v>1</v>
+      </c>
+      <c r="D84" s="10"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="23"/>
+    </row>
+    <row r="85" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B85" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="C85" s="4">
         <v>1</v>
       </c>
       <c r="D85" s="10"/>
-      <c r="E85" s="25"/>
+      <c r="E85" s="24"/>
       <c r="F85" s="23"/>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B86" s="11" t="s">
-        <v>8</v>
+    <row r="86" spans="2:6" ht="42" x14ac:dyDescent="0.45">
+      <c r="B86" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="C86" s="4">
         <v>1</v>
       </c>
       <c r="D86" s="10"/>
-      <c r="E86" s="25"/>
-      <c r="F86" s="28"/>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B87" s="11" t="s">
-        <v>10</v>
+      <c r="E86" s="24"/>
+      <c r="F86" s="23"/>
+    </row>
+    <row r="87" spans="2:6" ht="33" x14ac:dyDescent="0.45">
+      <c r="B87" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="C87" s="4">
         <v>1</v>
@@ -2379,12 +2434,184 @@
       <c r="E87" s="24"/>
       <c r="F87" s="23"/>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B88" s="14"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="26"/>
-      <c r="F88" s="27"/>
+    <row r="88" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B88" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C88" s="4">
+        <v>1</v>
+      </c>
+      <c r="D88" s="10"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="23"/>
+    </row>
+    <row r="89" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B89" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C89" s="4">
+        <v>1</v>
+      </c>
+      <c r="D89" s="10"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="23"/>
+    </row>
+    <row r="90" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B90" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C90" s="4">
+        <v>1</v>
+      </c>
+      <c r="D90" s="10"/>
+      <c r="E90" s="24"/>
+      <c r="F90" s="23"/>
+    </row>
+    <row r="91" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B91" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C91" s="4">
+        <v>1</v>
+      </c>
+      <c r="D91" s="10"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="23"/>
+    </row>
+    <row r="92" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B92" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C92" s="4">
+        <v>1</v>
+      </c>
+      <c r="D92" s="10"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="23"/>
+    </row>
+    <row r="93" spans="2:6" ht="33" x14ac:dyDescent="0.45">
+      <c r="B93" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C93" s="4">
+        <v>1</v>
+      </c>
+      <c r="D93" s="10"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="23"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B94" s="12"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="23"/>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B95" s="12"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="23"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B96" s="12"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="23"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B97" s="12"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="23"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B98" s="12"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="23"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B99" s="12"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="23"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B100" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" s="4">
+        <v>1</v>
+      </c>
+      <c r="D100" s="10"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="23"/>
+    </row>
+    <row r="101" spans="2:6" ht="33" x14ac:dyDescent="0.45">
+      <c r="B101" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" s="4">
+        <v>1</v>
+      </c>
+      <c r="D101" s="10"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="22"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B102" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" s="5"/>
+      <c r="D102" s="31"/>
+      <c r="E102" s="21"/>
+      <c r="F102" s="22"/>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B103" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" s="4">
+        <v>1</v>
+      </c>
+      <c r="D103" s="10"/>
+      <c r="E103" s="25"/>
+      <c r="F103" s="23"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B104" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="4">
+        <v>1</v>
+      </c>
+      <c r="D104" s="10"/>
+      <c r="E104" s="25"/>
+      <c r="F104" s="28"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B105" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105" s="4">
+        <v>1</v>
+      </c>
+      <c r="D105" s="10"/>
+      <c r="E105" s="24"/>
+      <c r="F105" s="23"/>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B106" s="14"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="26"/>
+      <c r="F106" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/activity/SIGE_P5.xlsx
+++ b/activity/SIGE_P5.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.SIGE\activity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FB49FC-2347-4DCD-96EC-4DF48EB3ECD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792BC635-7ABB-426F-94C5-F348FA38146A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14317" yWindow="0" windowWidth="14565" windowHeight="15563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P5" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'P5'!$B$1:$D$106</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'P5'!$B$1:$D$124</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'P5'!$1:$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>Componente / Actividad</t>
   </si>
@@ -172,30 +172,6 @@
   </si>
   <si>
     <t>Ráster</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">5. Mapa de suelos, vocación de uso y conflictos de uso de Colombia vs. MOT
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://github.com/rcfdtools/R.SIGE/blob/main/activity/LandSoil/Readme.md</t>
-    </r>
-  </si>
-  <si>
-    <t>5.1. Mapa de suelos de la zona de estudio</t>
-  </si>
-  <si>
-    <t>5.2. Suelos vs. MOT</t>
-  </si>
-  <si>
-    <t>5.3. Vocación de uso y conflictos de uso de Colombia vs. MOT</t>
   </si>
   <si>
     <r>
@@ -740,21 +716,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">MOT_Copernicus_Slope_Stat
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">	Tabla de estadísticos zonales para cada categoría de suelo definida en el MOT.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">P5-4: Comparación de modelos digitales POT, ASTER GDEM, SRTM, ALOS PALSAR y Copernicus. </t>
     </r>
     <r>
@@ -898,6 +859,484 @@
         <family val="2"/>
       </rPr>
       <t>En caso de que en su zona de estudio no existan páramos, identifique por proximidad los páramos más cercanos.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Paramos_Delimitados_Junio_2020.shp
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Páramos de Colombia a 2020 por Minambiente.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mpio25899_MOT2013_Paramo
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Intersección espacial límite municipal a partir del MOT y páramos de Colombia.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MOT_Paramo
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Intersección espacial de polígonos de categorias del MOT y el límite de páramo en la zona de estudio.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mpio25899_MOT2013_Paramo_Copernicus_Stat
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tabla de estadística zonal de elevaciones Copernicus dentro del límite de páramo en la zona de estudio.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MOT_Copernicus_Slope_Stat
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tabla de estadísticos zonales para cada categoría de suelo definida en el MOT.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mpio25899_MOT2013_Paramo_CopernicusSlope_Stat
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tabla de estadística zonal de pendientes a partir de Copernicus dentro del límite de páramo en la zona de estudio.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. Mapa de pisos térmicos
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://github.com/rcfdtools/R.SIGE/blob/main/activity/ThermicLevel/Readme.md</t>
+    </r>
+  </si>
+  <si>
+    <t>5.1. Procedimiento general para clasificación convencional</t>
+  </si>
+  <si>
+    <t>5.2. Mapa de pisos térmicos a partir de los valores simplificados de Caldas.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Copernicus30m_ThermicLevelRegular.tif
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Grilla de reclasificación de elevación a pisos térmicos a partir de DEM Copernicus.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Copernicus30m_ThermicLevelRegular
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Polígonos de reclasificación de pisos térmicos a partir de Copernicus30m_ThermicLevelRegular.tif.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mpio25899_MOT2013_ThermicLevelRegularCopernicus
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Polígonos de reclasificación de pisos térmicos recortado hasta el límite del MOT.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6. Perfiles de muestreo en red hidrográfica y vías principales
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://github.com/rcfdtools/R.SIGE/blob/main/activity/DEMProfile/Readme.md</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LineaPerfil
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Lineas para generación de perfiles.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LineaPerfilPoint
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Vertices de líneas utilizadas para generación de perfiles.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">P5-11: Mapa de páramos dentro de la zona de estudio con análisis de incompatibilidades MOT. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Incluir tablas de resumen estadístico y rótulos descriptivos. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">P5-12: Mapa de pisos térmicos clasificación convencional.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Incluir rótulos internos en zona de estudio con valores de área y porcentaje. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">P5-13: Mapa de pisos térmicos clasificación simplificada Caldas.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Incluir rótulos internos en zona de estudio con valores de área y porcentaje.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">P5-14: Mapa de drenaje y tramo de vía con nodos y perfiles.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Incluir gráficos de análisis y rótulos descriptivos.</t>
+    </r>
+  </si>
+  <si>
+    <t>6.1. Perfiles a partir de líneas de muestreo y nodos</t>
+  </si>
+  <si>
+    <t>6.2. Visualización en escena 3D</t>
+  </si>
+  <si>
+    <t>7.1. Edición de red de drenaje en ArcGIS Pro</t>
+  </si>
+  <si>
+    <t>7.2. Delimitación de cuencas en HEC-HMS</t>
+  </si>
+  <si>
+    <t>7.3. Visualización de cuencas y grillas en ArcGIS Pro</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mpio25899_Drenaje
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Red de drenaje ajustada para restitución hidrológica a partir de drenajes formulación POT.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RioFrioCuencas.shp
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Subcuencas Río Frío generadas en HEC-HMS.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RioFrioCuenca.shp
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cuenca Río Frío disuelta a partir de subcuencas.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RioFrioDrenajes.shp
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Drenaje por subcuenca en Río Frío.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7. Delimitación de cuencas hidrográficas locales
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://github.com/rcfdtools/R.SIGE/blob/main/activity/BasinLimit/Readme.md</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Siguiendo el procedimiento presentado en esta actividad, realizar la delimitación de subcuencas en 3 puntos de estudio o sifones para 3 cuencas hidrográficas dentro de su zona de estudio.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">P5-15: Cuencas, subcuencas, drenajes y puntos de control.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Incluir rótulos descriptivos con áreas y nombres de cuencas y drenajes. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8. Estudio geográfico de embalses
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://github.com/rcfdtools/R.SIGE/blob/main/activity/Reservoir/Readme.md</t>
+    </r>
+  </si>
+  <si>
+    <t>8.1. Procedimiento general en ArcGIS Pro</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EmbalsePunto
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Punto de localización de embalse.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EmbalseCurvaNivelCierre
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Curva de nivel perimetral de cierre de embalse.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EmbalseSuperficie
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Polígono de superficie embalsada a partir de curva de cierre.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EmbalseStorageCapacity
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tabla de resultados de análisis de almacenamiento y área superficial.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">P5-16: Mapa de embalse y curvas de elevación almacenamiento y elevación área.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Incluir gráficos de resultados.</t>
     </r>
   </si>
 </sst>
@@ -1530,13 +1969,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F106"/>
+  <dimension ref="B1:F124"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -1564,7 +2003,7 @@
     </row>
     <row r="3" spans="2:6" ht="33" x14ac:dyDescent="0.45">
       <c r="B3" s="32" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
@@ -1574,19 +2013,19 @@
         <v>0</v>
       </c>
       <c r="C4" s="6">
-        <f>SUM(C6:C106)</f>
-        <v>46.600000000000037</v>
+        <f>SUM(C6:C124)</f>
+        <v>58.400000000000063</v>
       </c>
       <c r="D4" s="7">
-        <f>SUM(D6:D106)</f>
-        <v>0</v>
+        <f>SUM(D6:D124)</f>
+        <v>58.400000000000063</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="18" t="str">
-        <f>_xlfn.CONCAT(SUM(E6:E106)," de ",$D$4, " puntos")</f>
-        <v>0 de 0 puntos</v>
+        <f>_xlfn.CONCAT(SUM(E6:E124)," de ",$D$4, " puntos")</f>
+        <v>0 de 58.4000000000001 puntos</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="33" x14ac:dyDescent="0.45">
@@ -1620,13 +2059,15 @@
       <c r="C7" s="4">
         <v>3</v>
       </c>
-      <c r="D7" s="10"/>
+      <c r="D7" s="10">
+        <v>3</v>
+      </c>
       <c r="E7" s="24"/>
       <c r="F7" s="23"/>
     </row>
     <row r="8" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B8" s="30" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="10"/>
@@ -1635,51 +2076,59 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B9" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="10">
+        <v>1</v>
+      </c>
       <c r="E9" s="24"/>
       <c r="F9" s="22"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B10" s="12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
       </c>
-      <c r="D10" s="10"/>
+      <c r="D10" s="10">
+        <v>1</v>
+      </c>
       <c r="E10" s="25"/>
       <c r="F10" s="23"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B11" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
       <c r="E11" s="21"/>
       <c r="F11" s="22"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B12" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C12" s="4">
         <v>0.5</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="10">
+        <v>0.5</v>
+      </c>
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
     </row>
     <row r="13" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B13" s="30" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="10"/>
@@ -1688,84 +2137,98 @@
     </row>
     <row r="14" spans="2:6" ht="33" x14ac:dyDescent="0.45">
       <c r="B14" s="12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C14" s="4">
         <v>0.5</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="10">
+        <v>0.5</v>
+      </c>
       <c r="E14" s="21"/>
       <c r="F14" s="22"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B15" s="12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C15" s="4">
         <v>1</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="10">
+        <v>1</v>
+      </c>
       <c r="E15" s="24"/>
       <c r="F15" s="23"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B16" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C16" s="4">
         <v>1</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="10">
+        <v>1</v>
+      </c>
       <c r="E16" s="24"/>
       <c r="F16" s="23"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B17" s="12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C17" s="4">
         <v>1</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="10">
+        <v>1</v>
+      </c>
       <c r="E17" s="24"/>
       <c r="F17" s="23"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B18" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
       </c>
-      <c r="D18" s="10"/>
+      <c r="D18" s="10">
+        <v>1</v>
+      </c>
       <c r="E18" s="24"/>
       <c r="F18" s="23"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B19" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C19" s="4">
         <v>1</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="10">
+        <v>1</v>
+      </c>
       <c r="E19" s="24"/>
       <c r="F19" s="23"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B20" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C20" s="4">
         <v>0.5</v>
       </c>
-      <c r="D20" s="10"/>
+      <c r="D20" s="10">
+        <v>0.5</v>
+      </c>
       <c r="E20" s="24"/>
       <c r="F20" s="23"/>
     </row>
     <row r="21" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B21" s="30" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="10"/>
@@ -1774,51 +2237,59 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B22" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C22" s="4">
         <v>1</v>
       </c>
-      <c r="D22" s="10"/>
+      <c r="D22" s="10">
+        <v>1</v>
+      </c>
       <c r="E22" s="21"/>
       <c r="F22" s="23"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B23" s="12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C23" s="4">
         <v>1</v>
       </c>
-      <c r="D23" s="10"/>
+      <c r="D23" s="10">
+        <v>1</v>
+      </c>
       <c r="E23" s="21"/>
       <c r="F23" s="22"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B24" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C24" s="4">
         <v>1</v>
       </c>
-      <c r="D24" s="10"/>
+      <c r="D24" s="10">
+        <v>1</v>
+      </c>
       <c r="E24" s="21"/>
       <c r="F24" s="22"/>
     </row>
     <row r="25" spans="2:6" ht="33" x14ac:dyDescent="0.45">
       <c r="B25" s="12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C25" s="4">
         <v>1</v>
       </c>
-      <c r="D25" s="10"/>
+      <c r="D25" s="10">
+        <v>1</v>
+      </c>
       <c r="E25" s="21"/>
       <c r="F25" s="22"/>
     </row>
     <row r="26" spans="2:6" ht="45.75" x14ac:dyDescent="0.45">
       <c r="B26" s="30" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="10"/>
@@ -1827,40 +2298,46 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B27" s="12" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C27" s="4">
         <v>1</v>
       </c>
-      <c r="D27" s="10"/>
+      <c r="D27" s="10">
+        <v>1</v>
+      </c>
       <c r="E27" s="21"/>
       <c r="F27" s="23"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B28" s="12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C28" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="D28" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="D28" s="10">
+        <v>1</v>
+      </c>
       <c r="E28" s="21"/>
       <c r="F28" s="22"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B29" s="12" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C29" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="D29" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="D29" s="10">
+        <v>1</v>
+      </c>
       <c r="E29" s="21"/>
       <c r="F29" s="22"/>
     </row>
     <row r="30" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B30" s="30" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="10"/>
@@ -1869,749 +2346,1153 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B31" s="12" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="C31" s="4">
         <v>1</v>
       </c>
-      <c r="D31" s="10"/>
+      <c r="D31" s="10">
+        <v>1</v>
+      </c>
       <c r="E31" s="24"/>
       <c r="F31" s="23"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B32" s="12" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="C32" s="4">
         <v>1</v>
       </c>
-      <c r="D32" s="10"/>
+      <c r="D32" s="10">
+        <v>1</v>
+      </c>
       <c r="E32" s="21"/>
       <c r="F32" s="22"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B33" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="4">
-        <v>2</v>
-      </c>
+    <row r="33" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B33" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="4"/>
       <c r="D33" s="10"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="23"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="22"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B34" s="11" t="s">
-        <v>14</v>
+      <c r="B34" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="C34" s="4">
         <v>1</v>
       </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="25"/>
+      <c r="D34" s="10">
+        <v>1</v>
+      </c>
+      <c r="E34" s="24"/>
       <c r="F34" s="23"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B35" s="11" t="s">
-        <v>20</v>
+      <c r="B35" s="12" t="s">
+        <v>107</v>
       </c>
       <c r="C35" s="4">
         <v>1</v>
       </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="23"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B36" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="4">
-        <v>1</v>
-      </c>
+      <c r="D35" s="10">
+        <v>1</v>
+      </c>
+      <c r="E35" s="21"/>
+      <c r="F35" s="22"/>
+    </row>
+    <row r="36" spans="2:6" ht="58.5" x14ac:dyDescent="0.45">
+      <c r="B36" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="4"/>
       <c r="D36" s="10"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="23"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="22"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B37" s="11" t="s">
-        <v>21</v>
+      <c r="B37" s="12" t="s">
+        <v>108</v>
       </c>
       <c r="C37" s="4">
         <v>1</v>
       </c>
-      <c r="D37" s="10"/>
+      <c r="D37" s="10">
+        <v>1</v>
+      </c>
       <c r="E37" s="24"/>
       <c r="F37" s="23"/>
     </row>
-    <row r="38" spans="2:6" ht="93" x14ac:dyDescent="0.45">
-      <c r="B38" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="31"/>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B38" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="4">
+        <v>2</v>
+      </c>
+      <c r="D38" s="10">
+        <v>2</v>
+      </c>
       <c r="E38" s="21"/>
       <c r="F38" s="22"/>
     </row>
-    <row r="39" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B39" s="11" t="s">
-        <v>24</v>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B39" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="C39" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="23"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B40" s="11" t="s">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="D39" s="10">
+        <v>1</v>
+      </c>
+      <c r="E39" s="21"/>
+      <c r="F39" s="22"/>
+    </row>
+    <row r="40" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B40" s="30" t="s">
+        <v>117</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="10"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="23"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="22"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B41" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="22"/>
-    </row>
-    <row r="42" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B42" s="13" t="s">
-        <v>39</v>
+      <c r="B41" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" s="4">
+        <v>1</v>
+      </c>
+      <c r="D41" s="10">
+        <v>1</v>
+      </c>
+      <c r="E41" s="24"/>
+      <c r="F41" s="23"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B42" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C42" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D42" s="10"/>
-      <c r="E42" s="24"/>
+        <v>1</v>
+      </c>
+      <c r="D42" s="10">
+        <v>1</v>
+      </c>
+      <c r="E42" s="25"/>
       <c r="F42" s="23"/>
     </row>
-    <row r="43" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B43" s="13" t="s">
-        <v>40</v>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B43" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="C43" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D43" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="D43" s="10">
+        <v>1</v>
+      </c>
       <c r="E43" s="24"/>
       <c r="F43" s="23"/>
     </row>
-    <row r="44" spans="2:6" ht="42" x14ac:dyDescent="0.45">
-      <c r="B44" s="13" t="s">
-        <v>44</v>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B44" s="11" t="s">
+        <v>1</v>
       </c>
       <c r="C44" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D44" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="D44" s="10">
+        <v>1</v>
+      </c>
       <c r="E44" s="24"/>
       <c r="F44" s="23"/>
     </row>
-    <row r="45" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B45" s="13" t="s">
-        <v>57</v>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B45" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="C45" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D45" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="D45" s="10">
+        <v>1</v>
+      </c>
       <c r="E45" s="24"/>
       <c r="F45" s="23"/>
     </row>
-    <row r="46" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C46" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D46" s="10"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="23"/>
+    <row r="46" spans="2:6" ht="93" x14ac:dyDescent="0.45">
+      <c r="B46" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="22"/>
     </row>
     <row r="47" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B47" s="13" t="s">
-        <v>67</v>
+      <c r="B47" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="C47" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D47" s="10"/>
-      <c r="E47" s="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="D47" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E47" s="25"/>
       <c r="F47" s="23"/>
     </row>
-    <row r="48" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B48" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C48" s="4">
-        <v>0.1</v>
-      </c>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B48" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="4"/>
       <c r="D48" s="10"/>
-      <c r="E48" s="24"/>
+      <c r="E48" s="25"/>
       <c r="F48" s="23"/>
     </row>
-    <row r="49" spans="2:6" ht="42" x14ac:dyDescent="0.45">
-      <c r="B49" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="4">
-        <v>0.1</v>
-      </c>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B49" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="4"/>
       <c r="D49" s="10"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="23"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B50" s="13"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="10"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="22"/>
+    </row>
+    <row r="50" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B50" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D50" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E50" s="24"/>
       <c r="F50" s="23"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B51" s="13"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="10"/>
+    <row r="51" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B51" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D51" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E51" s="24"/>
       <c r="F51" s="23"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B52" s="13"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="10"/>
+    <row r="52" spans="2:6" ht="42" x14ac:dyDescent="0.45">
+      <c r="B52" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D52" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E52" s="24"/>
       <c r="F52" s="23"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B53" s="13"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="10"/>
+    <row r="53" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B53" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D53" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E53" s="24"/>
       <c r="F53" s="23"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B54" s="13"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="10"/>
+    <row r="54" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B54" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D54" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E54" s="24"/>
       <c r="F54" s="23"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B55" s="13"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="10"/>
+    <row r="55" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B55" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D55" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E55" s="24"/>
       <c r="F55" s="23"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B56" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="22"/>
+    <row r="56" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B56" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D56" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="E56" s="24"/>
+      <c r="F56" s="23"/>
     </row>
     <row r="57" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B57" s="13" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="C57" s="4">
         <v>0.1</v>
       </c>
-      <c r="D57" s="10"/>
+      <c r="D57" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E57" s="24"/>
       <c r="F57" s="23"/>
     </row>
-    <row r="58" spans="2:6" ht="42" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B58" s="13" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="C58" s="4">
         <v>0.1</v>
       </c>
-      <c r="D58" s="10"/>
+      <c r="D58" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E58" s="24"/>
       <c r="F58" s="23"/>
     </row>
-    <row r="59" spans="2:6" ht="42" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B59" s="13" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="C59" s="4">
         <v>0.1</v>
       </c>
-      <c r="D59" s="10"/>
+      <c r="D59" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E59" s="24"/>
       <c r="F59" s="23"/>
     </row>
     <row r="60" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B60" s="13" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="C60" s="4">
         <v>0.1</v>
       </c>
-      <c r="D60" s="10"/>
+      <c r="D60" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E60" s="24"/>
       <c r="F60" s="23"/>
     </row>
-    <row r="61" spans="2:6" ht="42" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B61" s="13" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="C61" s="4">
         <v>0.1</v>
       </c>
-      <c r="D61" s="10"/>
+      <c r="D61" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E61" s="24"/>
       <c r="F61" s="23"/>
     </row>
-    <row r="62" spans="2:6" ht="42" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B62" s="13" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="C62" s="4">
         <v>0.1</v>
       </c>
-      <c r="D62" s="10"/>
+      <c r="D62" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E62" s="24"/>
       <c r="F62" s="23"/>
     </row>
     <row r="63" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B63" s="13" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="C63" s="4">
         <v>0.1</v>
       </c>
-      <c r="D63" s="10"/>
+      <c r="D63" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E63" s="24"/>
       <c r="F63" s="23"/>
     </row>
-    <row r="64" spans="2:6" ht="42" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B64" s="13" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="C64" s="4">
         <v>0.1</v>
       </c>
-      <c r="D64" s="10"/>
+      <c r="D64" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E64" s="24"/>
       <c r="F64" s="23"/>
     </row>
     <row r="65" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B65" s="13" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="C65" s="4">
         <v>0.1</v>
       </c>
-      <c r="D65" s="10"/>
+      <c r="D65" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E65" s="24"/>
       <c r="F65" s="23"/>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B66" s="13"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="10"/>
+    <row r="66" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B66" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C66" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D66" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E66" s="24"/>
       <c r="F66" s="23"/>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B67" s="13"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="10"/>
+    <row r="67" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B67" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C67" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D67" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E67" s="24"/>
       <c r="F67" s="23"/>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B68" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C68" s="4"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="22"/>
+    <row r="68" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B68" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C68" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D68" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="E68" s="24"/>
+      <c r="F68" s="23"/>
     </row>
     <row r="69" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B69" s="13" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="C69" s="4">
         <v>0.1</v>
       </c>
-      <c r="D69" s="10"/>
+      <c r="D69" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E69" s="24"/>
       <c r="F69" s="23"/>
     </row>
-    <row r="70" spans="2:6" ht="33" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B70" s="13" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="C70" s="4">
         <v>0.1</v>
       </c>
-      <c r="D70" s="10"/>
+      <c r="D70" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E70" s="24"/>
       <c r="F70" s="23"/>
     </row>
     <row r="71" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B71" s="13" t="s">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="C71" s="4">
         <v>0.1</v>
       </c>
-      <c r="D71" s="10"/>
+      <c r="D71" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E71" s="24"/>
       <c r="F71" s="23"/>
     </row>
-    <row r="72" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B72" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C72" s="4">
-        <v>0.1</v>
-      </c>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B72" s="13"/>
+      <c r="C72" s="4"/>
       <c r="D72" s="10"/>
       <c r="E72" s="24"/>
       <c r="F72" s="23"/>
     </row>
-    <row r="73" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B73" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C73" s="4">
-        <v>0.1</v>
-      </c>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B73" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73" s="4"/>
       <c r="D73" s="10"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="23"/>
-    </row>
-    <row r="74" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="E73" s="21"/>
+      <c r="F73" s="22"/>
+    </row>
+    <row r="74" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B74" s="13" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="C74" s="4">
         <v>0.1</v>
       </c>
-      <c r="D74" s="10"/>
+      <c r="D74" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E74" s="24"/>
       <c r="F74" s="23"/>
     </row>
     <row r="75" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B75" s="13" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="C75" s="4">
         <v>0.1</v>
       </c>
-      <c r="D75" s="10"/>
+      <c r="D75" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E75" s="24"/>
       <c r="F75" s="23"/>
     </row>
     <row r="76" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B76" s="13" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="C76" s="4">
         <v>0.1</v>
       </c>
-      <c r="D76" s="10"/>
+      <c r="D76" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E76" s="24"/>
       <c r="F76" s="23"/>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B77" s="13"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="10"/>
+    <row r="77" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B77" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C77" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D77" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E77" s="24"/>
       <c r="F77" s="23"/>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B78" s="13"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="10"/>
+    <row r="78" spans="2:6" ht="42" x14ac:dyDescent="0.45">
+      <c r="B78" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C78" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D78" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E78" s="24"/>
       <c r="F78" s="23"/>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B79" s="13"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="10"/>
+    <row r="79" spans="2:6" ht="42" x14ac:dyDescent="0.45">
+      <c r="B79" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C79" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D79" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E79" s="24"/>
       <c r="F79" s="23"/>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B80" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C80" s="4"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="21"/>
-      <c r="F80" s="22"/>
-    </row>
-    <row r="81" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B80" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C80" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D80" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="E80" s="24"/>
+      <c r="F80" s="23"/>
+    </row>
+    <row r="81" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B81" s="13" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="C81" s="4">
         <v>0.1</v>
       </c>
-      <c r="D81" s="10"/>
+      <c r="D81" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E81" s="24"/>
       <c r="F81" s="23"/>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B82" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C82" s="5"/>
-      <c r="D82" s="31"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="22"/>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B83" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C83" s="4"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="21"/>
-      <c r="F83" s="22"/>
-    </row>
-    <row r="84" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B84" s="12" t="s">
-        <v>46</v>
+    <row r="82" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B82" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C82" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D82" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="E82" s="24"/>
+      <c r="F82" s="23"/>
+    </row>
+    <row r="83" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B83" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C83" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D83" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="E83" s="24"/>
+      <c r="F83" s="23"/>
+    </row>
+    <row r="84" spans="2:6" ht="42" x14ac:dyDescent="0.45">
+      <c r="B84" s="13" t="s">
+        <v>92</v>
       </c>
       <c r="C84" s="4">
-        <v>1</v>
-      </c>
-      <c r="D84" s="10"/>
+        <v>0.1</v>
+      </c>
+      <c r="D84" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E84" s="24"/>
       <c r="F84" s="23"/>
     </row>
     <row r="85" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B85" s="12" t="s">
-        <v>47</v>
+      <c r="B85" s="13" t="s">
+        <v>122</v>
       </c>
       <c r="C85" s="4">
-        <v>1</v>
-      </c>
-      <c r="D85" s="10"/>
+        <v>0.1</v>
+      </c>
+      <c r="D85" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E85" s="24"/>
       <c r="F85" s="23"/>
     </row>
-    <row r="86" spans="2:6" ht="42" x14ac:dyDescent="0.45">
-      <c r="B86" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C86" s="4">
-        <v>1</v>
-      </c>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B86" s="13"/>
+      <c r="C86" s="4"/>
       <c r="D86" s="10"/>
       <c r="E86" s="24"/>
       <c r="F86" s="23"/>
     </row>
-    <row r="87" spans="2:6" ht="33" x14ac:dyDescent="0.45">
-      <c r="B87" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C87" s="4">
-        <v>1</v>
-      </c>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B87" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C87" s="4"/>
       <c r="D87" s="10"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="23"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="22"/>
     </row>
     <row r="88" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B88" s="12" t="s">
-        <v>82</v>
+      <c r="B88" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="C88" s="4">
-        <v>1</v>
-      </c>
-      <c r="D88" s="10"/>
+        <v>0.1</v>
+      </c>
+      <c r="D88" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E88" s="24"/>
       <c r="F88" s="23"/>
     </row>
-    <row r="89" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B89" s="12" t="s">
-        <v>83</v>
+    <row r="89" spans="2:6" ht="33" x14ac:dyDescent="0.45">
+      <c r="B89" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="C89" s="4">
-        <v>1</v>
-      </c>
-      <c r="D89" s="10"/>
+        <v>0.1</v>
+      </c>
+      <c r="D89" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E89" s="24"/>
       <c r="F89" s="23"/>
     </row>
     <row r="90" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B90" s="12" t="s">
-        <v>84</v>
+      <c r="B90" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="C90" s="4">
-        <v>1</v>
-      </c>
-      <c r="D90" s="10"/>
+        <v>0.1</v>
+      </c>
+      <c r="D90" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E90" s="24"/>
       <c r="F90" s="23"/>
     </row>
     <row r="91" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B91" s="12" t="s">
-        <v>85</v>
+      <c r="B91" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="C91" s="4">
-        <v>1</v>
-      </c>
-      <c r="D91" s="10"/>
+        <v>0.1</v>
+      </c>
+      <c r="D91" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E91" s="24"/>
       <c r="F91" s="23"/>
     </row>
     <row r="92" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B92" s="12" t="s">
-        <v>86</v>
+      <c r="B92" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="C92" s="4">
-        <v>1</v>
-      </c>
-      <c r="D92" s="10"/>
+        <v>0.1</v>
+      </c>
+      <c r="D92" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E92" s="24"/>
       <c r="F92" s="23"/>
     </row>
-    <row r="93" spans="2:6" ht="33" x14ac:dyDescent="0.45">
-      <c r="B93" s="12" t="s">
-        <v>87</v>
+    <row r="93" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B93" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="C93" s="4">
-        <v>1</v>
-      </c>
-      <c r="D93" s="10"/>
+        <v>0.1</v>
+      </c>
+      <c r="D93" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E93" s="24"/>
       <c r="F93" s="23"/>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B94" s="12"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="10"/>
+    <row r="94" spans="2:6" ht="42" x14ac:dyDescent="0.45">
+      <c r="B94" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C94" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D94" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E94" s="24"/>
       <c r="F94" s="23"/>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B95" s="12"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="10"/>
+    <row r="95" spans="2:6" ht="42" x14ac:dyDescent="0.45">
+      <c r="B95" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C95" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D95" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E95" s="24"/>
       <c r="F95" s="23"/>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B96" s="12"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="10"/>
+    <row r="96" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B96" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C96" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D96" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E96" s="24"/>
       <c r="F96" s="23"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B97" s="12"/>
+      <c r="B97" s="13"/>
       <c r="C97" s="4"/>
       <c r="D97" s="10"/>
       <c r="E97" s="24"/>
       <c r="F97" s="23"/>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B98" s="12"/>
+      <c r="B98" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="C98" s="4"/>
       <c r="D98" s="10"/>
-      <c r="E98" s="24"/>
-      <c r="F98" s="23"/>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B99" s="12"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="10"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="22"/>
+    </row>
+    <row r="99" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B99" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C99" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D99" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E99" s="24"/>
       <c r="F99" s="23"/>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B100" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C100" s="4">
-        <v>1</v>
-      </c>
-      <c r="D100" s="10"/>
-      <c r="E100" s="24"/>
-      <c r="F100" s="23"/>
-    </row>
-    <row r="101" spans="2:6" ht="33" x14ac:dyDescent="0.45">
+      <c r="B100" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100" s="5"/>
+      <c r="D100" s="31"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="22"/>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B101" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C101" s="4">
-        <v>1</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C101" s="4"/>
       <c r="D101" s="10"/>
       <c r="E101" s="21"/>
       <c r="F101" s="22"/>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B102" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C102" s="5"/>
-      <c r="D102" s="31"/>
-      <c r="E102" s="21"/>
-      <c r="F102" s="22"/>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B103" s="11" t="s">
-        <v>9</v>
+    <row r="102" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B102" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C102" s="4">
+        <v>1</v>
+      </c>
+      <c r="D102" s="10">
+        <v>1</v>
+      </c>
+      <c r="E102" s="24"/>
+      <c r="F102" s="23"/>
+    </row>
+    <row r="103" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B103" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="C103" s="4">
         <v>1</v>
       </c>
-      <c r="D103" s="10"/>
-      <c r="E103" s="25"/>
+      <c r="D103" s="10">
+        <v>1</v>
+      </c>
+      <c r="E103" s="24"/>
       <c r="F103" s="23"/>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B104" s="11" t="s">
-        <v>8</v>
+    <row r="104" spans="2:6" ht="42" x14ac:dyDescent="0.45">
+      <c r="B104" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="C104" s="4">
         <v>1</v>
       </c>
-      <c r="D104" s="10"/>
-      <c r="E104" s="25"/>
-      <c r="F104" s="28"/>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B105" s="11" t="s">
-        <v>10</v>
+      <c r="D104" s="10">
+        <v>1</v>
+      </c>
+      <c r="E104" s="24"/>
+      <c r="F104" s="23"/>
+    </row>
+    <row r="105" spans="2:6" ht="33" x14ac:dyDescent="0.45">
+      <c r="B105" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="C105" s="4">
         <v>1</v>
       </c>
-      <c r="D105" s="10"/>
+      <c r="D105" s="10">
+        <v>1</v>
+      </c>
       <c r="E105" s="24"/>
       <c r="F105" s="23"/>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B106" s="14"/>
-      <c r="C106" s="15"/>
-      <c r="D106" s="16"/>
-      <c r="E106" s="26"/>
-      <c r="F106" s="27"/>
+    <row r="106" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B106" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C106" s="4">
+        <v>1</v>
+      </c>
+      <c r="D106" s="10">
+        <v>1</v>
+      </c>
+      <c r="E106" s="24"/>
+      <c r="F106" s="23"/>
+    </row>
+    <row r="107" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B107" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C107" s="4">
+        <v>1</v>
+      </c>
+      <c r="D107" s="10">
+        <v>1</v>
+      </c>
+      <c r="E107" s="24"/>
+      <c r="F107" s="23"/>
+    </row>
+    <row r="108" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B108" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C108" s="4">
+        <v>1</v>
+      </c>
+      <c r="D108" s="10">
+        <v>1</v>
+      </c>
+      <c r="E108" s="24"/>
+      <c r="F108" s="23"/>
+    </row>
+    <row r="109" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B109" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C109" s="4">
+        <v>1</v>
+      </c>
+      <c r="D109" s="10">
+        <v>1</v>
+      </c>
+      <c r="E109" s="24"/>
+      <c r="F109" s="23"/>
+    </row>
+    <row r="110" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B110" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C110" s="4">
+        <v>1</v>
+      </c>
+      <c r="D110" s="10">
+        <v>1</v>
+      </c>
+      <c r="E110" s="24"/>
+      <c r="F110" s="23"/>
+    </row>
+    <row r="111" spans="2:6" ht="33" x14ac:dyDescent="0.45">
+      <c r="B111" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C111" s="4">
+        <v>1</v>
+      </c>
+      <c r="D111" s="10">
+        <v>1</v>
+      </c>
+      <c r="E111" s="24"/>
+      <c r="F111" s="23"/>
+    </row>
+    <row r="112" spans="2:6" ht="33" x14ac:dyDescent="0.45">
+      <c r="B112" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C112" s="4">
+        <v>1</v>
+      </c>
+      <c r="D112" s="10">
+        <v>1</v>
+      </c>
+      <c r="E112" s="24"/>
+      <c r="F112" s="23"/>
+    </row>
+    <row r="113" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B113" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C113" s="4">
+        <v>1</v>
+      </c>
+      <c r="D113" s="10">
+        <v>1</v>
+      </c>
+      <c r="E113" s="24"/>
+      <c r="F113" s="23"/>
+    </row>
+    <row r="114" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B114" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C114" s="4">
+        <v>1</v>
+      </c>
+      <c r="D114" s="10">
+        <v>1</v>
+      </c>
+      <c r="E114" s="24"/>
+      <c r="F114" s="23"/>
+    </row>
+    <row r="115" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B115" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C115" s="4">
+        <v>1</v>
+      </c>
+      <c r="D115" s="10">
+        <v>1</v>
+      </c>
+      <c r="E115" s="24"/>
+      <c r="F115" s="23"/>
+    </row>
+    <row r="116" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B116" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C116" s="4">
+        <v>1</v>
+      </c>
+      <c r="D116" s="10">
+        <v>1</v>
+      </c>
+      <c r="E116" s="24"/>
+      <c r="F116" s="23"/>
+    </row>
+    <row r="117" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B117" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C117" s="4">
+        <v>1</v>
+      </c>
+      <c r="D117" s="10">
+        <v>1</v>
+      </c>
+      <c r="E117" s="24"/>
+      <c r="F117" s="23"/>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B118" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C118" s="4">
+        <v>1</v>
+      </c>
+      <c r="D118" s="10">
+        <v>1</v>
+      </c>
+      <c r="E118" s="24"/>
+      <c r="F118" s="23"/>
+    </row>
+    <row r="119" spans="2:6" ht="33" x14ac:dyDescent="0.45">
+      <c r="B119" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" s="4">
+        <v>1</v>
+      </c>
+      <c r="D119" s="10">
+        <v>1</v>
+      </c>
+      <c r="E119" s="21"/>
+      <c r="F119" s="22"/>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B120" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120" s="5"/>
+      <c r="D120" s="31"/>
+      <c r="E120" s="21"/>
+      <c r="F120" s="22"/>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B121" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" s="4">
+        <v>1</v>
+      </c>
+      <c r="D121" s="10">
+        <v>1</v>
+      </c>
+      <c r="E121" s="25"/>
+      <c r="F121" s="23"/>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B122" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="4">
+        <v>1</v>
+      </c>
+      <c r="D122" s="10">
+        <v>1</v>
+      </c>
+      <c r="E122" s="25"/>
+      <c r="F122" s="28"/>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B123" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" s="4">
+        <v>1</v>
+      </c>
+      <c r="D123" s="10">
+        <v>1</v>
+      </c>
+      <c r="E123" s="24"/>
+      <c r="F123" s="23"/>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B124" s="14"/>
+      <c r="C124" s="15"/>
+      <c r="D124" s="16"/>
+      <c r="E124" s="26"/>
+      <c r="F124" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">
